--- a/metrics/transfer_time/cleaned_data/ES_03._.xlsx
+++ b/metrics/transfer_time/cleaned_data/ES_03._.xlsx
@@ -3313,10 +3313,18 @@
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>12959632</v>
+      </c>
+      <c r="C144" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2758768</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15664208</v>
+      </c>
       <c r="F144" t="n">
         <v>64432</v>
       </c>
